--- a/data/trans_orig/P21D5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04FE0E30-BA97-4F4D-8011-DF949B17EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C45922D7-6202-4A5C-AFB5-12019FA4A7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22D664E7-D226-4B3A-B959-90D5704E700F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D0750FC-7617-4CD3-813B-71BB9810B5D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="218">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="225">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>96,92%</t>
   </si>
   <si>
-    <t>88,58%</t>
+    <t>89,14%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>93,68%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -107,559 +107,583 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,42%</t>
+    <t>10,86%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
     <t>0,04%</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>95,13%</t>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -668,22 +692,19 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>0,23%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -1101,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58B0355-5E9D-4F24-888B-EB6B5F6B3054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F6EC79-752B-4F51-B9DA-CDB091013BB5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1363,13 +1384,13 @@
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1399,7 +1420,7 @@
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1414,7 +1435,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,13 +1450,13 @@
         <v>191775</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -1444,13 +1465,13 @@
         <v>158654</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
         <v>178</v>
@@ -1459,18 +1480,18 @@
         <v>350430</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1482,13 +1503,13 @@
         <v>197026</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>224</v>
@@ -1497,13 +1518,13 @@
         <v>252936</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>363</v>
@@ -1512,13 +1533,13 @@
         <v>449962</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,13 +1554,13 @@
         <v>7550</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1548,13 +1569,13 @@
         <v>1819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1563,13 +1584,13 @@
         <v>9369</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,13 +1605,13 @@
         <v>1942</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1599,13 +1620,13 @@
         <v>965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1626,7 +1647,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1671,7 +1692,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,13 +1707,13 @@
         <v>206518</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>228</v>
@@ -1701,13 +1722,13 @@
         <v>256829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>373</v>
@@ -1716,18 +1737,18 @@
         <v>463347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1739,13 +1760,13 @@
         <v>214272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>373</v>
@@ -1754,13 +1775,13 @@
         <v>262036</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>587</v>
@@ -1769,13 +1790,13 @@
         <v>476308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,13 +1811,13 @@
         <v>9503</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -1805,13 +1826,13 @@
         <v>13492</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M15" s="7">
         <v>28</v>
@@ -1820,13 +1841,13 @@
         <v>22995</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,7 +1868,7 @@
         <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1856,13 +1877,13 @@
         <v>944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1871,19 +1892,19 @@
         <v>944</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1898,7 +1919,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1907,13 +1928,13 @@
         <v>881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1922,13 +1943,13 @@
         <v>881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +1964,13 @@
         <v>223775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" s="7">
         <v>395</v>
@@ -1958,13 +1979,13 @@
         <v>277353</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18" s="7">
         <v>617</v>
@@ -1973,18 +1994,18 @@
         <v>501128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1996,13 +2017,13 @@
         <v>270044</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>498</v>
@@ -2011,13 +2032,13 @@
         <v>329730</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>770</v>
@@ -2026,13 +2047,13 @@
         <v>599774</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2068,13 @@
         <v>71831</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2062,13 +2083,13 @@
         <v>13232</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -2077,13 +2098,13 @@
         <v>85063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,13 +2119,13 @@
         <v>4260</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2113,13 +2134,13 @@
         <v>4549</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -2128,19 +2149,19 @@
         <v>8809</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2149,13 +2170,13 @@
         <v>1146</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2164,13 +2185,13 @@
         <v>1425</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2179,13 +2200,13 @@
         <v>2571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2221,13 @@
         <v>347281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>528</v>
@@ -2215,13 +2236,13 @@
         <v>348936</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>823</v>
@@ -2230,18 +2251,18 @@
         <v>696216</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2253,13 +2274,13 @@
         <v>234747</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>370</v>
@@ -2268,13 +2289,13 @@
         <v>222269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>626</v>
@@ -2283,13 +2304,13 @@
         <v>457016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2325,13 @@
         <v>16262</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -2319,13 +2340,13 @@
         <v>20905</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -2334,13 +2355,13 @@
         <v>37167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2376,13 @@
         <v>2785</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2370,13 +2391,13 @@
         <v>2210</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2385,19 +2406,19 @@
         <v>4996</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
@@ -2406,13 +2427,13 @@
         <v>1777</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2421,13 +2442,13 @@
         <v>2014</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -2436,13 +2457,13 @@
         <v>3791</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,13 +2478,13 @@
         <v>255571</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28" s="7">
         <v>410</v>
@@ -2472,13 +2493,13 @@
         <v>247399</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M28" s="7">
         <v>688</v>
@@ -2487,18 +2508,18 @@
         <v>502970</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2510,13 +2531,13 @@
         <v>286699</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>676</v>
@@ -2525,13 +2546,13 @@
         <v>369772</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>1100</v>
@@ -2540,13 +2561,13 @@
         <v>656471</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2582,13 @@
         <v>4624</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -2576,13 +2597,13 @@
         <v>17887</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -2591,13 +2612,13 @@
         <v>22511</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2633,13 @@
         <v>1528</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -2627,13 +2648,13 @@
         <v>4528</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -2642,19 +2663,19 @@
         <v>6056</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2663,13 +2684,13 @@
         <v>600</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -2678,13 +2699,13 @@
         <v>1176</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -2693,13 +2714,13 @@
         <v>1776</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2735,13 @@
         <v>293451</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33" s="7">
         <v>718</v>
@@ -2729,13 +2750,13 @@
         <v>393363</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M33" s="7">
         <v>1152</v>
@@ -2744,13 +2765,13 @@
         <v>686814</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2788,13 @@
         <v>1388659</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H34" s="7">
         <v>2230</v>
@@ -2782,13 +2803,13 @@
         <v>1585375</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>3618</v>
@@ -2797,13 +2818,13 @@
         <v>2974034</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2839,13 @@
         <v>115675</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H35" s="7">
         <v>112</v>
@@ -2833,13 +2854,13 @@
         <v>74664</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M35" s="7">
         <v>169</v>
@@ -2848,13 +2869,13 @@
         <v>190339</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2890,13 @@
         <v>10516</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -2884,13 +2905,13 @@
         <v>15891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
@@ -2899,19 +2920,19 @@
         <v>26406</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>4</v>
@@ -2920,13 +2941,13 @@
         <v>3522</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -2935,13 +2956,13 @@
         <v>6605</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -2950,13 +2971,13 @@
         <v>10127</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2992,13 @@
         <v>1518372</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H38" s="7">
         <v>2372</v>
@@ -2986,13 +3007,13 @@
         <v>1682534</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M38" s="7">
         <v>3831</v>
@@ -3001,18 +3022,18 @@
         <v>3200906</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C45922D7-6202-4A5C-AFB5-12019FA4A7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A01C851-B9FB-4F01-BD23-88AA9832C582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D0750FC-7617-4CD3-813B-71BB9810B5D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5DB17923-CF9A-4879-8B4A-6B4242B3CBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F6EC79-752B-4F51-B9DA-CDB091013BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D34D4-8BDC-472E-97A6-238458A442E7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A01C851-B9FB-4F01-BD23-88AA9832C582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F4DFB7-C39C-4494-B8B4-BFDCFF599962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5DB17923-CF9A-4879-8B4A-6B4242B3CBFA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2CCEC7A-010E-4A2B-BB73-CA65EC9371E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="218">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>96,92%</t>
   </si>
   <si>
-    <t>89,14%</t>
+    <t>88,58%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>93,68%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,86%</t>
+    <t>11,42%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -140,15 +140,12 @@
     <t>1,7%</t>
   </si>
   <si>
-    <t>8,69%</t>
+    <t>8,33%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
     <t>No lo pudo recibir por motivos económicos</t>
   </si>
   <si>
@@ -167,544 +164,526 @@
     <t>95,4%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -1122,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5D34D4-8BDC-472E-97A6-238458A442E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB8F849-FF63-4EAF-8435-817F60BD2E55}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1384,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1420,7 +1399,7 @@
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1435,7 +1414,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,13 +1429,13 @@
         <v>191775</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -1465,13 +1444,13 @@
         <v>158654</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>178</v>
@@ -1480,18 +1459,18 @@
         <v>350430</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1503,13 +1482,13 @@
         <v>197026</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>224</v>
@@ -1518,13 +1497,13 @@
         <v>252936</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>363</v>
@@ -1533,13 +1512,13 @@
         <v>449962</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,13 +1533,13 @@
         <v>7550</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1569,13 +1548,13 @@
         <v>1819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1584,13 +1563,13 @@
         <v>9369</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,13 +1584,13 @@
         <v>1942</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1620,13 +1599,13 @@
         <v>965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1647,7 +1626,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1692,7 +1671,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,13 +1686,13 @@
         <v>206518</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>228</v>
@@ -1722,13 +1701,13 @@
         <v>256829</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>373</v>
@@ -1737,18 +1716,18 @@
         <v>463347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1760,13 +1739,13 @@
         <v>214272</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>373</v>
@@ -1775,13 +1754,13 @@
         <v>262036</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>587</v>
@@ -1790,13 +1769,13 @@
         <v>476308</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,13 +1790,13 @@
         <v>9503</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -1826,13 +1805,13 @@
         <v>13492</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M15" s="7">
         <v>28</v>
@@ -1841,13 +1820,13 @@
         <v>22995</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1847,7 @@
         <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1877,13 +1856,13 @@
         <v>944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1892,19 +1871,19 @@
         <v>944</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1919,7 +1898,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1928,13 +1907,13 @@
         <v>881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1943,13 +1922,13 @@
         <v>881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,13 +1943,13 @@
         <v>223775</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="7">
         <v>395</v>
@@ -1979,13 +1958,13 @@
         <v>277353</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M18" s="7">
         <v>617</v>
@@ -1994,18 +1973,18 @@
         <v>501128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2017,13 +1996,13 @@
         <v>270044</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>498</v>
@@ -2032,13 +2011,13 @@
         <v>329730</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>770</v>
@@ -2047,13 +2026,13 @@
         <v>599774</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2047,13 @@
         <v>71831</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2083,13 +2062,13 @@
         <v>13232</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -2098,13 +2077,13 @@
         <v>85063</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2098,13 @@
         <v>4260</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2134,13 +2113,13 @@
         <v>4549</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -2149,19 +2128,19 @@
         <v>8809</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2170,13 +2149,13 @@
         <v>1146</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2185,13 +2164,13 @@
         <v>1425</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2200,13 +2179,13 @@
         <v>2571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2200,13 @@
         <v>347281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>528</v>
@@ -2236,13 +2215,13 @@
         <v>348936</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>823</v>
@@ -2251,18 +2230,18 @@
         <v>696216</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2274,13 +2253,13 @@
         <v>234747</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>370</v>
@@ -2289,13 +2268,13 @@
         <v>222269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>626</v>
@@ -2304,13 +2283,13 @@
         <v>457016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2304,13 @@
         <v>16262</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -2340,13 +2319,13 @@
         <v>20905</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -2355,13 +2334,13 @@
         <v>37167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2355,13 @@
         <v>2785</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2391,13 +2370,13 @@
         <v>2210</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2406,19 +2385,19 @@
         <v>4996</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
@@ -2427,13 +2406,13 @@
         <v>1777</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2442,13 +2421,13 @@
         <v>2014</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -2457,13 +2436,13 @@
         <v>3791</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2457,13 @@
         <v>255571</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="7">
         <v>410</v>
@@ -2493,13 +2472,13 @@
         <v>247399</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M28" s="7">
         <v>688</v>
@@ -2508,18 +2487,18 @@
         <v>502970</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2531,13 +2510,13 @@
         <v>286699</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>676</v>
@@ -2546,13 +2525,13 @@
         <v>369772</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>1100</v>
@@ -2561,13 +2540,13 @@
         <v>656471</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2561,13 @@
         <v>4624</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -2597,13 +2576,13 @@
         <v>17887</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -2612,13 +2591,13 @@
         <v>22511</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2612,13 @@
         <v>1528</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -2648,13 +2627,13 @@
         <v>4528</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -2663,19 +2642,19 @@
         <v>6056</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2684,13 +2663,13 @@
         <v>600</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -2699,13 +2678,13 @@
         <v>1176</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -2714,13 +2693,13 @@
         <v>1776</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2714,13 @@
         <v>293451</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33" s="7">
         <v>718</v>
@@ -2750,13 +2729,13 @@
         <v>393363</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M33" s="7">
         <v>1152</v>
@@ -2765,13 +2744,13 @@
         <v>686814</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2767,13 @@
         <v>1388659</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H34" s="7">
         <v>2230</v>
@@ -2803,13 +2782,13 @@
         <v>1585375</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M34" s="7">
         <v>3618</v>
@@ -2818,13 +2797,13 @@
         <v>2974034</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2818,13 @@
         <v>115675</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H35" s="7">
         <v>112</v>
@@ -2854,13 +2833,13 @@
         <v>74664</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M35" s="7">
         <v>169</v>
@@ -2869,13 +2848,13 @@
         <v>190339</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2869,13 @@
         <v>10516</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -2905,13 +2884,13 @@
         <v>15891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
@@ -2920,19 +2899,19 @@
         <v>26406</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>4</v>
@@ -2941,13 +2920,13 @@
         <v>3522</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -2956,13 +2935,13 @@
         <v>6605</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="M37" s="7">
         <v>14</v>
@@ -2971,13 +2950,13 @@
         <v>10127</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2971,13 @@
         <v>1518372</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" s="7">
         <v>2372</v>
@@ -3007,13 +2986,13 @@
         <v>1682534</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M38" s="7">
         <v>3831</v>
@@ -3022,18 +3001,18 @@
         <v>3200906</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F4DFB7-C39C-4494-B8B4-BFDCFF599962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70B892C8-CC88-45E5-988B-3EF465DD3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2CCEC7A-010E-4A2B-BB73-CA65EC9371E3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1957D4BC-4066-4E9B-B21C-5A8017D0769D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="239">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -65,628 +65,691 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Sí lo pudo recibir</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Sí lo pudo recibir</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1101,8 +1164,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB8F849-FF63-4EAF-8435-817F60BD2E55}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE1CFCB-34A7-49D4-A598-64D907257B38}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1222,7 +1285,7 @@
         <v>83</v>
       </c>
       <c r="D4" s="7">
-        <v>185869</v>
+        <v>197656</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1237,7 +1300,7 @@
         <v>89</v>
       </c>
       <c r="I4" s="7">
-        <v>148631</v>
+        <v>131817</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1252,7 +1315,7 @@
         <v>172</v>
       </c>
       <c r="N4" s="7">
-        <v>334502</v>
+        <v>329472</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1273,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>5906</v>
+        <v>6293</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1288,7 +1351,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>7328</v>
+        <v>5840</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1303,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>13234</v>
+        <v>12134</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1339,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2694</v>
+        <v>2688</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1354,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>2694</v>
+        <v>2688</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>35</v>
@@ -1363,13 +1426,13 @@
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1399,7 +1462,7 @@
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1414,7 +1477,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1426,51 +1489,51 @@
         <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
       </c>
       <c r="I8" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
         <v>178</v>
       </c>
       <c r="N8" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1479,46 +1542,46 @@
         <v>139</v>
       </c>
       <c r="D9" s="7">
-        <v>197026</v>
+        <v>195216</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>224</v>
       </c>
       <c r="I9" s="7">
-        <v>252936</v>
+        <v>287662</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>363</v>
       </c>
       <c r="N9" s="7">
-        <v>449962</v>
+        <v>482878</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1530,40 +1593,40 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>7550</v>
+        <v>7885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1819</v>
+        <v>1629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>9369</v>
+        <v>9514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>56</v>
@@ -1581,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1942</v>
+        <v>1621</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -1596,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>965</v>
+        <v>903</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>60</v>
@@ -1611,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>2908</v>
+        <v>2525</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>62</v>
@@ -1626,7 +1689,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1647,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>1109</v>
+        <v>924</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>65</v>
@@ -1662,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>1109</v>
+        <v>924</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>67</v>
@@ -1671,7 +1734,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,51 +1746,51 @@
         <v>145</v>
       </c>
       <c r="D13" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>228</v>
       </c>
       <c r="I13" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>373</v>
       </c>
       <c r="N13" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1736,46 +1799,46 @@
         <v>214</v>
       </c>
       <c r="D14" s="7">
-        <v>214272</v>
+        <v>206154</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>373</v>
       </c>
       <c r="I14" s="7">
-        <v>262036</v>
+        <v>243344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>587</v>
       </c>
       <c r="N14" s="7">
-        <v>476308</v>
+        <v>449498</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,46 +1850,46 @@
         <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>9503</v>
+        <v>9332</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
       </c>
       <c r="I15" s="7">
-        <v>13492</v>
+        <v>12724</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M15" s="7">
         <v>28</v>
       </c>
       <c r="N15" s="7">
-        <v>22995</v>
+        <v>22055</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,31 +1910,31 @@
         <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>944</v>
+        <v>880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>944</v>
+        <v>880</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>22</v>
@@ -1883,7 +1946,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1898,13 +1961,13 @@
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>881</v>
+        <v>741</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>91</v>
@@ -1919,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>881</v>
+        <v>741</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>93</v>
@@ -1940,46 +2003,46 @@
         <v>222</v>
       </c>
       <c r="D18" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" s="7">
         <v>395</v>
       </c>
       <c r="I18" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18" s="7">
         <v>617</v>
       </c>
       <c r="N18" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,7 +2056,7 @@
         <v>272</v>
       </c>
       <c r="D19" s="7">
-        <v>270044</v>
+        <v>257222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>96</v>
@@ -2008,7 +2071,7 @@
         <v>498</v>
       </c>
       <c r="I19" s="7">
-        <v>329730</v>
+        <v>303219</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>99</v>
@@ -2023,7 +2086,7 @@
         <v>770</v>
       </c>
       <c r="N19" s="7">
-        <v>599774</v>
+        <v>560440</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>102</v>
@@ -2044,7 +2107,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>71831</v>
+        <v>264020</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>105</v>
@@ -2059,7 +2122,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="7">
-        <v>13232</v>
+        <v>12159</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>108</v>
@@ -2074,7 +2137,7 @@
         <v>39</v>
       </c>
       <c r="N20" s="7">
-        <v>85063</v>
+        <v>276179</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>111</v>
@@ -2095,97 +2158,97 @@
         <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>4260</v>
+        <v>4038</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
       </c>
       <c r="I21" s="7">
-        <v>4549</v>
+        <v>4151</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>8809</v>
+        <v>8189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1146</v>
+        <v>1114</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1425</v>
+        <v>1334</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>2571</v>
+        <v>2448</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,46 +2260,46 @@
         <v>295</v>
       </c>
       <c r="D23" s="7">
-        <v>347281</v>
+        <v>526394</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>528</v>
       </c>
       <c r="I23" s="7">
-        <v>348936</v>
+        <v>320862</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>823</v>
       </c>
       <c r="N23" s="7">
-        <v>696216</v>
+        <v>847256</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,7 +2313,7 @@
         <v>256</v>
       </c>
       <c r="D24" s="7">
-        <v>234747</v>
+        <v>219211</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>127</v>
@@ -2265,7 +2328,7 @@
         <v>370</v>
       </c>
       <c r="I24" s="7">
-        <v>222269</v>
+        <v>203722</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>130</v>
@@ -2280,7 +2343,7 @@
         <v>626</v>
       </c>
       <c r="N24" s="7">
-        <v>457016</v>
+        <v>422934</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>133</v>
@@ -2301,7 +2364,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>16262</v>
+        <v>14980</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>136</v>
@@ -2316,7 +2379,7 @@
         <v>34</v>
       </c>
       <c r="I25" s="7">
-        <v>20905</v>
+        <v>19073</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>139</v>
@@ -2331,7 +2394,7 @@
         <v>51</v>
       </c>
       <c r="N25" s="7">
-        <v>37167</v>
+        <v>34053</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>142</v>
@@ -2352,58 +2415,58 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>2785</v>
+        <v>2616</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>2210</v>
+        <v>2050</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
       </c>
       <c r="N26" s="7">
-        <v>4996</v>
+        <v>4666</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>1777</v>
+        <v>1697</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>152</v>
@@ -2418,13 +2481,13 @@
         <v>3</v>
       </c>
       <c r="I27" s="7">
-        <v>2014</v>
+        <v>1846</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>154</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>155</v>
@@ -2433,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="N27" s="7">
-        <v>3791</v>
+        <v>3543</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>156</v>
@@ -2454,46 +2517,46 @@
         <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28" s="7">
         <v>410</v>
       </c>
       <c r="I28" s="7">
-        <v>247399</v>
+        <v>226692</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M28" s="7">
         <v>688</v>
       </c>
       <c r="N28" s="7">
-        <v>502970</v>
+        <v>465196</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,10 +2567,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>424</v>
+        <v>238</v>
       </c>
       <c r="D29" s="7">
-        <v>286699</v>
+        <v>153541</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>160</v>
@@ -2519,10 +2582,10 @@
         <v>162</v>
       </c>
       <c r="H29" s="7">
-        <v>676</v>
+        <v>345</v>
       </c>
       <c r="I29" s="7">
-        <v>369772</v>
+        <v>170856</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>163</v>
@@ -2534,10 +2597,10 @@
         <v>165</v>
       </c>
       <c r="M29" s="7">
-        <v>1100</v>
+        <v>583</v>
       </c>
       <c r="N29" s="7">
-        <v>656471</v>
+        <v>324398</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>166</v>
@@ -2555,25 +2618,25 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>4624</v>
+        <v>1936</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>170</v>
       </c>
       <c r="H30" s="7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I30" s="7">
-        <v>17887</v>
+        <v>11588</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>171</v>
@@ -2585,19 +2648,19 @@
         <v>173</v>
       </c>
       <c r="M30" s="7">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N30" s="7">
-        <v>22511</v>
+        <v>13524</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,100 +2669,100 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>1528</v>
+        <v>877</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1740</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2616</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H31" s="7">
-        <v>7</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4528</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M31" s="7">
-        <v>9</v>
-      </c>
-      <c r="N31" s="7">
-        <v>6056</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>1176</v>
+        <v>1093</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="M32" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>1776</v>
+        <v>1093</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,102 +2771,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D33" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33" s="7">
-        <v>718</v>
+        <v>374</v>
       </c>
       <c r="I33" s="7">
-        <v>393363</v>
+        <v>185277</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M33" s="7">
-        <v>1152</v>
+        <v>616</v>
       </c>
       <c r="N33" s="7">
-        <v>686814</v>
+        <v>341631</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1388</v>
+        <v>186</v>
       </c>
       <c r="D34" s="7">
-        <v>1388659</v>
+        <v>114684</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="7">
+        <v>331</v>
+      </c>
+      <c r="I34" s="7">
+        <v>163312</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M34" s="7">
+        <v>517</v>
+      </c>
+      <c r="N34" s="7">
+        <v>277997</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H34" s="7">
-        <v>2230</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1585375</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M34" s="7">
-        <v>3618</v>
-      </c>
-      <c r="N34" s="7">
-        <v>2974034</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,49 +2875,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D35" s="7">
-        <v>115675</v>
+        <v>2428</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H35" s="7">
+        <v>9</v>
+      </c>
+      <c r="I35" s="7">
+        <v>4485</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M35" s="7">
+        <v>13</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6913</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H35" s="7">
-        <v>112</v>
-      </c>
-      <c r="I35" s="7">
-        <v>74664</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M35" s="7">
-        <v>169</v>
-      </c>
-      <c r="N35" s="7">
-        <v>190339</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,100 +2926,100 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>10516</v>
+        <v>524</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="H36" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I36" s="7">
-        <v>15891</v>
+        <v>2252</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M36" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N36" s="7">
-        <v>26406</v>
+        <v>2776</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>3522</v>
+        <v>570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H37" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>6605</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>215</v>
+        <v>54</v>
       </c>
       <c r="M37" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>10127</v>
+        <v>570</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,63 +3028,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>192</v>
+      </c>
+      <c r="D38" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="7">
+        <v>344</v>
+      </c>
+      <c r="I38" s="7">
+        <v>170049</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="7">
+        <v>536</v>
+      </c>
+      <c r="N38" s="7">
+        <v>288256</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1388</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1343683</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2230</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1503933</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3618</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2847617</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>57</v>
+      </c>
+      <c r="D40" s="7">
+        <v>306874</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H40" s="7">
+        <v>112</v>
+      </c>
+      <c r="I40" s="7">
+        <v>67498</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M40" s="7">
+        <v>169</v>
+      </c>
+      <c r="N40" s="7">
+        <v>374372</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>10</v>
+      </c>
+      <c r="D41" s="7">
+        <v>9676</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" s="7">
+        <v>20</v>
+      </c>
+      <c r="I41" s="7">
+        <v>14665</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M41" s="7">
+        <v>30</v>
+      </c>
+      <c r="N41" s="7">
+        <v>24340</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="7">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3381</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="7">
+        <v>10</v>
+      </c>
+      <c r="I42" s="7">
+        <v>5938</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M42" s="7">
+        <v>14</v>
+      </c>
+      <c r="N42" s="7">
+        <v>9319</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1459</v>
       </c>
-      <c r="D38" s="7">
-        <v>1518372</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1663614</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="7">
         <v>2372</v>
       </c>
-      <c r="I38" s="7">
-        <v>1682534</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1592034</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M43" s="7">
         <v>3831</v>
       </c>
-      <c r="N38" s="7">
-        <v>3200906</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>217</v>
+      <c r="N43" s="7">
+        <v>3255648</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
